--- a/Yearly IYR 2004-2007.xlsx
+++ b/Yearly IYR 2004-2007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4DA7CBF-1123-4125-9C1C-4A62C4E9B6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6A2913-7C6A-420C-803C-6E9B121A71E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,9 +524,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -883,263 +882,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>2004</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>49.825001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>51.555</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>48.509998000000003</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>50.514999000000003</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>24.301667999999999</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>18301200</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2005</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>61.474997999999999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>65.069999999999993</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>61.474997999999999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>63.599997999999999</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>32.043610000000001</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>31361400</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2006</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>68.739998</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>72.349997999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>68.480002999999996</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>71.25</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>37.354667999999997</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>49116900</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>2007</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>85.660004000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>86.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>76.110000999999997</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>77.419998000000007</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>42.213065999999998</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>143692800</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G43">

--- a/Yearly IYR 2004-2007.xlsx
+++ b/Yearly IYR 2004-2007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6A2913-7C6A-420C-803C-6E9B121A71E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DB9B870-701D-44F8-8D93-2DB798DD7D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Date</t>
-  </si>
   <si>
     <t>Open</t>
   </si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>Volume</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -884,9 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -898,25 +896,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
